--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -16,40 +16,49 @@
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$G$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$5:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="83">
   <si>
     <t>KPI Name</t>
   </si>
@@ -123,9 +132,6 @@
     <t>Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t>Product Availability Per SKU – to update only when sheet will be updated</t>
-  </si>
-  <si>
     <t>MSL Compliance</t>
   </si>
   <si>
@@ -168,28 +174,28 @@
     <t>GBD</t>
   </si>
   <si>
-    <t>Bisolvon Tab 8 MG 50x10's</t>
+    <t>Bisolvon Tab 8 MG 50x10's/Box</t>
   </si>
   <si>
     <t>Bisolvon</t>
   </si>
   <si>
-    <t>Cough&amp;Cold</t>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>Buscopan Tabs 50x10's</t>
   </si>
   <si>
     <t>Bisolvon Pediatric Syrup 60ml</t>
   </si>
   <si>
-    <t>Bisolvon Ex Syrub 60ml</t>
-  </si>
-  <si>
-    <t>Buscopan Tabs 50x10's</t>
+    <t>Bisolvon Ex Syrup 60ml</t>
   </si>
   <si>
     <t>Buscopan</t>
   </si>
   <si>
-    <t>Pain</t>
+    <t>Antipasmodic</t>
   </si>
   <si>
     <t>Essentiale Forte 300 MG</t>
@@ -225,18 +231,38 @@
     <t>Telfast Oral Suspension 150ml</t>
   </si>
   <si>
+    <t>Maalox Alum Milk 240ml</t>
+  </si>
+  <si>
+    <t>Maalox</t>
+  </si>
+  <si>
+    <t>Mucosolvan Syrup 60ml</t>
+  </si>
+  <si>
+    <t>Mucosolvan</t>
+  </si>
+  <si>
+    <t>Mucosolvan Tab 30mg</t>
+  </si>
+  <si>
+    <t>Proctosedyl Oint 15mg</t>
+  </si>
+  <si>
+    <t>PROCTOSEDYL</t>
+  </si>
+  <si>
     <t>Ignore empty</t>
   </si>
   <si>
-    <t>Cough &amp; Cold</t>
-  </si>
-  <si>
-    <t>Bisolvon Tab 8 MG 50x10's,
-Bisolvon Ex Syrub 60ml</t>
+    <t>Bisolvon Tab 8 MG 50x10's/Box,
+Bisolvon Pediatric Syrup 60ml, 
+Bisolvon Ex Syrup 60ml</t>
   </si>
   <si>
     <t>8850886103072,
-8850886103058</t>
+8850886103041, 
+'8850886103058</t>
   </si>
   <si>
     <t>Telfast 60 MG,
@@ -249,37 +275,68 @@
 7891058013264</t>
   </si>
   <si>
-    <t>Shelf Talker_Bisolvon</t>
-  </si>
-  <si>
-    <t>TH_Primary_01</t>
-  </si>
-  <si>
-    <t>POSM</t>
+    <t>MUCOSOLVAN TAB 30mg 
+MUCOSOLVAN SYRUB 60ml</t>
+  </si>
+  <si>
+    <t>8850886103133, 
+8850886103126</t>
+  </si>
+  <si>
+    <t> Bisolvon &amp; Cepacol</t>
+  </si>
+  <si>
+    <t>Cepacol Orginal, 
+Cepacol Honey &amp; Lemon
+Bisolvon Tab 8 MG 50x10's/Box,
+Bisolvon Pediatric Syrup 60ml, 
+Bisolvon Ex Syrup 60ml</t>
+  </si>
+  <si>
+    <t>8850886057207, 
+8850886057252
+8850886103072,
+8850886103041, 
+8850886103058</t>
+  </si>
+  <si>
+    <t>Shelf Frame_Bisolvon</t>
+  </si>
+  <si>
+    <t>TH_Primary_04</t>
+  </si>
+  <si>
+    <t> Cough</t>
   </si>
   <si>
     <t>Primary Display_Telfast</t>
   </si>
   <si>
-    <t>TH_Primary_02</t>
-  </si>
-  <si>
-    <t>Bisolvon Counter Top</t>
-  </si>
-  <si>
-    <t>TH_Secondary_01</t>
-  </si>
-  <si>
-    <t>Cepacol Counter Top</t>
-  </si>
-  <si>
-    <t>TH_Secondary_02</t>
-  </si>
-  <si>
-    <t>Bisolvon Hangsell</t>
-  </si>
-  <si>
-    <t>TH_Secondary_03</t>
+    <t>TH_Primary_05</t>
+  </si>
+  <si>
+    <t>Shelf Strips_Mucosolvan</t>
+  </si>
+  <si>
+    <t>TH_Primary_03</t>
+  </si>
+  <si>
+    <t>Secondary_Dual_Bisolvon + Cepacol</t>
+  </si>
+  <si>
+    <t>TH_Secondary_04</t>
+  </si>
+  <si>
+    <t>Bisolvon Tab 8 MG 50x10's</t>
+  </si>
+  <si>
+    <t>Bisolvon Ex Syrub 60ml</t>
+  </si>
+  <si>
+    <t>MUCOSOLVAN SYRUB 60ml</t>
+  </si>
+  <si>
+    <t>MUCOSOLVAN TAB 30mg</t>
   </si>
 </sst>
 </file>
@@ -298,7 +355,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -320,14 +376,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -335,7 +383,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -343,14 +390,12 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -358,49 +403,48 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF3300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -408,7 +452,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -416,10 +459,9 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +526,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -807,12 +855,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -901,103 +949,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1005,31 +1053,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1049,67 +1117,67 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,87 +1185,87 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="38" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="38" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="11" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,7 +1273,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1213,15 +1281,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1229,11 +1297,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1245,15 +1309,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,7 +1348,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1314,7 +1390,7 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1349,18 +1425,18 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1471,7 +1547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="9" t="s">
@@ -1494,10 +1570,10 @@
     </row>
     <row r="7" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -1505,7 +1581,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
       <c r="F7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
@@ -1513,20 +1589,20 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>11</v>
@@ -1534,10 +1610,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1549,10 +1625,10 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
@@ -1564,14 +1640,14 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="18"/>
@@ -1597,20 +1673,20 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:12"/>
+  <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="21" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="21" width="9.10526315789474"/>
   </cols>
@@ -1623,7 +1699,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -2648,22 +2724,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
@@ -3685,19 +3761,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="36" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40" t="n">
@@ -4723,7 +4799,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>38</v>
@@ -4732,10 +4808,10 @@
         <v>8850886103041</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46" t="n">
@@ -5761,7 +5837,7 @@
     </row>
     <row r="5" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>39</v>
@@ -5770,10 +5846,10 @@
         <v>8850886103058</v>
       </c>
       <c r="D5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="46" t="n">
@@ -5783,19 +5859,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="42" t="n">
+        <v>8850886103010</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="42" t="n">
-        <v>4048846001429</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="E6" s="44" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="46" t="n">
@@ -5804,19 +5880,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="42" t="n">
         <v>8850886077250</v>
       </c>
       <c r="D7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="46" t="n">
@@ -5825,19 +5901,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="42" t="n">
         <v>8850886057252</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="46" t="n">
@@ -5846,19 +5922,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="42" t="n">
         <v>8850886057207</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="46" t="n">
@@ -5867,19 +5943,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="42" t="n">
         <v>8993237285017</v>
       </c>
       <c r="D10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>51</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="46" t="n">
@@ -5888,19 +5964,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="42" t="n">
         <v>8993237226072</v>
       </c>
       <c r="D11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="46" t="n">
@@ -5909,27 +5985,111 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="42" t="n">
         <v>7891058013264</v>
       </c>
       <c r="D12" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>51</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="46" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="50" t="n">
+        <v>8850886056125</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="50" t="n">
+        <v>8850886103126</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="50" t="n">
+        <v>8850886103133</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="50" t="n">
+        <v>8850886087228</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H12"/>
+  <autoFilter ref="A2:G16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5949,15 +6109,15 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
@@ -5971,49 +6131,49 @@
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="48" t="s">
-        <v>28</v>
+      <c r="F1" s="53" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G4"/>
+  <autoFilter ref="A2:F4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6033,16 +6193,16 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
@@ -6050,82 +6210,124 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62"/>
+      <c r="A1" s="67"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
-      <c r="G1" s="63" t="s">
-        <v>28</v>
+      <c r="G1" s="68" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>34</v>
+      <c r="F2" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="s">
+    <row r="3" customFormat="false" ht="33.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74" t="n">
+      <c r="D3" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="47" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80" t="n">
+      <c r="D4" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85" t="n">
         <v>1</v>
       </c>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6168,16 +6370,16 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -6189,130 +6391,111 @@
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="81" t="s">
-        <v>28</v>
+      <c r="F1" s="86" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>34</v>
+      <c r="F2" s="88" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84" t="s">
+    <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="88" t="n">
+      <c r="B3" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="93" t="n">
+      <c r="F4" s="99" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="94" t="s">
+    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="86" t="s">
+      <c r="B6" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="88" t="n">
+      <c r="F6" s="101" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="96" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6343,19 +6526,19 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6366,231 +6549,336 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
-      <c r="G1" s="97" t="s">
-        <v>28</v>
+      <c r="G1" s="102" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="D2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G2" s="103" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="98" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="106" t="n">
+        <v>8850886103072</v>
+      </c>
+      <c r="D3" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="101" t="n">
-        <v>8850886103072</v>
-      </c>
-      <c r="D3" s="102" t="s">
+      <c r="E3" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="104" t="n">
+      <c r="F3" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="105" t="n">
+      <c r="G3" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="106"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="108" t="n">
+      <c r="C4" s="50" t="n">
         <v>8850886103041</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="104" t="n">
+      <c r="F4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="105" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="106"/>
+      <c r="G4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" s="47" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="108" t="n">
+      <c r="B5" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="50" t="n">
         <v>8850886103058</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="104" t="n">
+      <c r="F5" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="105" t="n">
-        <v>2</v>
+      <c r="G5" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="47" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="99" t="s">
+    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="50" t="n">
+        <v>8850886103126</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="50" t="n">
+        <v>8850886103133</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="50" t="n">
+        <v>8993237285017</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="50" t="n">
+        <v>8993237226072</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="50" t="n">
+        <v>7891058013264</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="115" t="n">
+        <v>8850886103072</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="115" t="n">
+        <v>8850886103041</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="115" t="n">
+        <v>8850886103058</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="115" t="n">
+        <v>8850886057252</v>
+      </c>
+      <c r="D14" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="108" t="n">
-        <v>8850886057252</v>
-      </c>
-      <c r="D6" s="109" t="s">
+      <c r="E14" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="104" t="n">
+      <c r="C15" s="115" t="n">
+        <v>8850886057207</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="105" t="n">
+      <c r="G15" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="47" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="108" t="n">
-        <v>8850886057207</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="47" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="108" t="n">
-        <v>8993237285017</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="47" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="108" t="n">
-        <v>8993237226072</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="47" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="108" t="n">
-        <v>7891058013264</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6672,7 +6960,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:H10"/>
+  <autoFilter ref="A2:G13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -27,9 +27,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
@@ -37,8 +39,10 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$5:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
@@ -59,6 +63,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -183,13 +189,13 @@
     <t>Cough</t>
   </si>
   <si>
+    <t>Bisolvon Pediatric Syrup 60ml</t>
+  </si>
+  <si>
+    <t>Bisolvon Ex Syrup 60ml</t>
+  </si>
+  <si>
     <t>Buscopan Tabs 50x10's</t>
-  </si>
-  <si>
-    <t>Bisolvon Pediatric Syrup 60ml</t>
-  </si>
-  <si>
-    <t>Bisolvon Ex Syrup 60ml</t>
   </si>
   <si>
     <t>Buscopan</t>
@@ -261,8 +267,8 @@
   </si>
   <si>
     <t>8850886103072,
-8850886103041, 
-'8850886103058</t>
+8850886103041,
+8850886103058</t>
   </si>
   <si>
     <t>Telfast 60 MG,
@@ -271,7 +277,7 @@
   </si>
   <si>
     <t>8993237285017,
-8993237226072, 
+8993237226072,
 7891058013264</t>
   </si>
   <si>
@@ -279,7 +285,7 @@
 MUCOSOLVAN SYRUB 60ml</t>
   </si>
   <si>
-    <t>8850886103133, 
+    <t>8850886103133,
 8850886103126</t>
   </si>
   <si>
@@ -293,10 +299,10 @@
 Bisolvon Ex Syrup 60ml</t>
   </si>
   <si>
-    <t>8850886057207, 
-8850886057252
+    <t>8850886057207,
+8850886057252,
 8850886103072,
-8850886103041, 
+8850886103041,
 8850886103058</t>
   </si>
   <si>
@@ -355,6 +361,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -376,6 +383,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -383,6 +391,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -390,12 +399,14 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -403,48 +414,56 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF3300"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -452,6 +471,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -459,6 +479,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1431,12 +1452,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1676,15 +1697,15 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="21" width="10.497975708502"/>
@@ -4799,10 +4820,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="42" t="n">
         <v>8850886103041</v>
@@ -5840,7 +5861,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="42" t="n">
         <v>8850886103058</v>
@@ -5862,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="42" t="n">
         <v>8850886103010</v>
@@ -6115,9 +6136,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
@@ -6193,16 +6214,16 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.5627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
@@ -6243,7 +6264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
@@ -6376,10 +6397,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -6532,13 +6552,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6605,7 +6625,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="50" t="n">
         <v>8850886103041</v>
@@ -6791,7 +6811,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="115" t="n">
         <v>8850886103041</v>
@@ -6814,7 +6834,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="115" t="n">
         <v>8850886103058</v>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,33 +16,35 @@
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$16</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$F$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$5:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
@@ -53,18 +55,19 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1446,18 +1449,18 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1696,15 +1699,15 @@
   </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="21" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.3886639676113"/>
@@ -6110,7 +6113,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G16"/>
+  <autoFilter ref="A2:H16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6130,15 +6133,15 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
@@ -6194,7 +6197,7 @@
       <c r="F4" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F4"/>
+  <autoFilter ref="A2:G4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6214,16 +6217,16 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.9878542510121"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
@@ -6347,7 +6350,7 @@
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6391,15 +6394,15 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -6546,19 +6549,19 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6980,7 +6983,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:G13"/>
+  <autoFilter ref="A2:H13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -90,22 +90,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -163,22 +163,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -236,7 +236,6 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -247,11 +246,11 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>identical</t>
         </r>
@@ -285,22 +284,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -358,11 +357,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
 </t>
@@ -383,11 +382,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
 </t>
@@ -408,22 +407,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -509,22 +508,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -676,7 +675,7 @@
     <t>Buscopan</t>
   </si>
   <si>
-    <t>pain</t>
+    <t>Pain</t>
   </si>
   <si>
     <t>Essentiale Forte 300 MG</t>
@@ -829,18 +828,18 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -911,14 +910,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -953,6 +944,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -1150,7 +1149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1174,25 +1173,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1244,7 +1239,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1252,11 +1247,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1308,15 +1303,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1324,19 +1311,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1348,7 +1335,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,11 +1367,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1420,7 +1407,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1428,7 +1415,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1449,15 +1436,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1535,13 +1521,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1800,17 +1786,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1846,7 +1832,7 @@
       </c>
       <c r="G2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1853,7 @@
       </c>
       <c r="G3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -1888,7 +1874,7 @@
       </c>
       <c r="G4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +1895,7 @@
       </c>
       <c r="G5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
@@ -1930,7 +1916,7 @@
       </c>
       <c r="G6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +1937,7 @@
       </c>
       <c r="G7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
@@ -1972,7 +1958,7 @@
       </c>
       <c r="G8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +1979,7 @@
       </c>
       <c r="G9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
@@ -2014,7 +2000,7 @@
       </c>
       <c r="G10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
@@ -2035,7 +2021,7 @@
       </c>
       <c r="G11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2056,7 +2042,7 @@
       </c>
       <c r="G12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
@@ -2077,7 +2063,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2084,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
@@ -2119,7 +2105,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -2164,24 +2150,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="31" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+    <row r="1" s="33" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2199,13 +2185,13 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2245,25 +2231,25 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="39" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="40" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="37" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2288,95 +2274,95 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
+      <c r="F3" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+      <c r="F4" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="46" t="n">
+      <c r="F5" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2398,17 +2384,17 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2423,30 +2409,30 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -2455,18 +2441,18 @@
       <c r="D3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="F3" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -2478,15 +2464,15 @@
       <c r="E4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="F4" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -2495,18 +2481,18 @@
       <c r="D5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
+      <c r="F5" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -2515,10 +2501,10 @@
       <c r="D6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,73 +2512,73 @@
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="58"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="58"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="58"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="58"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="58"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="58"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="58"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="58"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="58"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="58"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="58"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="58"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="58"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="58"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="58"/>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="58"/>
+      <c r="F25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="58"/>
+      <c r="F26" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2614,307 +2600,307 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="60" t="n">
+      <c r="C3" s="58" t="n">
         <v>8850886103072</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="F3" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="60" t="n">
+      <c r="C4" s="58" t="n">
         <v>8850886103041</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="F4" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="60" t="n">
+      <c r="C5" s="58" t="n">
         <v>8850886103058</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="F5" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="60" t="n">
+      <c r="C6" s="58" t="n">
         <v>8850886103126</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+      <c r="F6" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="60" t="n">
+      <c r="C7" s="58" t="n">
         <v>8850886103133</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
+      <c r="F7" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="60" t="n">
+      <c r="C8" s="58" t="n">
         <v>8993237285017</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="s">
+      <c r="F8" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="60" t="n">
+      <c r="C9" s="58" t="n">
         <v>8993237226072</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="s">
+      <c r="F9" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="60" t="n">
+      <c r="C10" s="58" t="n">
         <v>7891058013264</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
+      <c r="F10" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="60" t="n">
+      <c r="C11" s="58" t="n">
         <v>8850886103072</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="62" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62" t="s">
+      <c r="F11" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="60" t="n">
+      <c r="C12" s="58" t="n">
         <v>8850886103041</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="63" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62" t="s">
+      <c r="F12" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="60" t="n">
+      <c r="C13" s="58" t="n">
         <v>8850886103058</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="63" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="61" t="n">
+      <c r="F13" s="59" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62" t="s">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="60" t="n">
+      <c r="C14" s="58" t="n">
         <v>8850886057252</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="61" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62" t="s">
+      <c r="F14" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="60" t="n">
+      <c r="C15" s="58" t="n">
         <v>8850886057207</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="61" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="61" t="n">
+      <c r="F15" s="59" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -90,12 +90,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -107,17 +106,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -163,12 +152,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -180,31 +168,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -236,11 +200,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>To be </t>
         </r>
@@ -252,17 +216,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> to SKUs Category in Trax DB</t>
+          <t>identical to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -284,12 +238,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -301,17 +254,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -364,17 +307,7 @@
             <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Brand of Required POSM in accordance with POSM template</t>
+Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -389,8 +322,12 @@
             <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
-</t>
+Category of Required POSM in accordance with POSM template</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="11"/>
@@ -398,21 +335,6 @@
             <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
-          </rPr>
-          <t>Category of Required POSM in accordance with POSM template</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <u val="single"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -424,17 +346,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -508,12 +420,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -525,17 +436,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -544,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
   <si>
     <t>KPI Name</t>
   </si>
@@ -733,12 +634,6 @@
   </si>
   <si>
     <t>SKUs</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>Bisolvon Tab 8 MG 50x10's/Box,Bisolvon Pediatric Syrup 60ml,Bisolvon Ex Syrup 60ml
@@ -804,7 +699,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -903,13 +798,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -932,21 +820,12 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1178,7 +1057,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1303,7 +1182,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1311,19 +1190,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1367,7 +1238,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1375,7 +1246,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1387,7 +1258,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1419,7 +1290,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1516,18 +1387,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1786,17 +1657,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2142,20 +2013,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" s="33" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2167,9 +2039,9 @@
       <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2185,34 +2057,12 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2237,19 +2087,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="37" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="36" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2275,94 +2125,94 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="F4" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="B5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="F5" s="42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2389,12 +2239,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2409,54 +2259,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>71</v>
+      <c r="B3" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="43" t="n">
+      <c r="F3" s="41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>73</v>
+      <c r="B4" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>51</v>
@@ -2464,47 +2314,47 @@
       <c r="E4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="43" t="n">
+      <c r="F4" s="41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>75</v>
+      <c r="B5" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="44" t="n">
+      <c r="F5" s="42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>77</v>
+      <c r="B6" s="51" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="54" t="n">
+      <c r="F6" s="52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,73 +2362,73 @@
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="56"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="56"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="56"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="56"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="56"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="56"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="56"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="56"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="56"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="56"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="56"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="56"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="56"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="56"/>
+      <c r="F26" s="54"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2605,12 +2455,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2625,282 +2475,282 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="56" t="n">
+        <v>8850886103072</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="56" t="n">
+        <v>8850886103041</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="56" t="n">
+        <v>8850886103058</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="56" t="n">
+        <v>8850886103126</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="58" t="n">
+      <c r="C7" s="56" t="n">
+        <v>8850886103133</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="56" t="n">
+        <v>8993237285017</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="56" t="n">
+        <v>8993237226072</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="56" t="n">
+        <v>7891058013264</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="56" t="n">
         <v>8850886103072</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="58" t="n">
-        <v>8850886103041</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="58" t="n">
-        <v>8850886103058</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="58" t="n">
-        <v>8850886103126</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="58" t="n">
-        <v>8850886103133</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="58" t="n">
-        <v>8993237285017</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="58" t="n">
-        <v>8993237226072</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="58" t="n">
-        <v>7891058013264</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="58" t="n">
-        <v>8850886103072</v>
-      </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="60" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="58" t="n">
+      <c r="C12" s="56" t="n">
         <v>8850886103041</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="61" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="58" t="n">
+      <c r="C13" s="56" t="n">
         <v>8850886103058</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="61" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="59" t="n">
+      <c r="F13" s="57" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="58" t="n">
+      <c r="C14" s="56" t="n">
         <v>8850886057252</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="59" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="59" t="n">
+      <c r="F14" s="57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="58" t="n">
+      <c r="C15" s="56" t="n">
         <v>8850886057207</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="59" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="59" t="n">
+      <c r="F15" s="57" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -196,20 +196,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -552,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -741,12 +727,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Bisolvon Tab 8 MG 50x10's/Box,Bisolvon Pediatric Syrup 60ml,Bisolvon Ex Syrup 60ml
@@ -812,7 +792,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -836,13 +816,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -860,6 +833,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -939,14 +919,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1129,7 +1101,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1153,25 +1125,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1215,15 +1183,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1231,11 +1199,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1263,7 +1231,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1271,27 +1239,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1299,7 +1251,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1315,15 +1267,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1347,10 +1299,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1359,11 +1307,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1371,19 +1319,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1391,27 +1339,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,7 +1371,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1432,15 +1380,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1518,13 +1465,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1788,12 +1735,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2139,34 +2086,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29" t="s">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2182,179 +2129,157 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="34"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2374,24 +2299,24 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="38" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="39" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2417,94 +2342,94 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="44" t="n">
+      <c r="F4" s="40" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="B5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="44" t="n">
+      <c r="F5" s="40" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2531,13 +2456,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="47" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="48" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="43" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,54 +2476,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>71</v>
+      <c r="B3" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="54" t="n">
+      <c r="F3" s="49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>73</v>
+      <c r="B4" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>51</v>
@@ -2606,131 +2531,131 @@
       <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="54" t="n">
+      <c r="F4" s="49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>75</v>
+      <c r="B5" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="55" t="n">
+      <c r="F5" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>77</v>
+      <c r="B6" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="58" t="n">
+      <c r="F6" s="53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="54"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="34"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="34"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="34"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="34"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="34"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="34"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="34"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="34"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="34"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="34"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="34"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="34"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="34"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="34"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="34"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="34"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="34"/>
+      <c r="F27" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2757,53 +2682,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="61" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="55" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="56" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="57" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="64" t="n">
+        <v>77</v>
+      </c>
+      <c r="C3" s="59" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -2812,18 +2737,18 @@
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="65" t="n">
+      <c r="F3" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="59" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -2832,18 +2757,18 @@
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="65" t="n">
+      <c r="F4" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="59" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -2852,18 +2777,18 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="65" t="n">
+      <c r="F5" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="64" t="n">
+        <v>78</v>
+      </c>
+      <c r="C6" s="59" t="n">
         <v>8850886103126</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -2872,18 +2797,18 @@
       <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="65" t="n">
+      <c r="F6" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="64" t="n">
+        <v>79</v>
+      </c>
+      <c r="C7" s="59" t="n">
         <v>8850886103133</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -2892,18 +2817,18 @@
       <c r="E7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="65" t="n">
+      <c r="F7" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="59" t="n">
         <v>8993237285017</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -2912,18 +2837,18 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="65" t="n">
+      <c r="F8" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="59" t="n">
         <v>8993237226072</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -2932,18 +2857,18 @@
       <c r="E9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="65" t="n">
+      <c r="F9" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="59" t="n">
         <v>7891058013264</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2952,18 +2877,18 @@
       <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="65" t="n">
+      <c r="F10" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="64" t="n">
+        <v>77</v>
+      </c>
+      <c r="C11" s="59" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -2972,18 +2897,18 @@
       <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="65" t="n">
+      <c r="F11" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="59" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -2992,18 +2917,18 @@
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="65" t="n">
+      <c r="F12" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="59" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -3012,18 +2937,18 @@
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="65" t="n">
+      <c r="F13" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="64" t="n">
+      <c r="C14" s="59" t="n">
         <v>8850886057252</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -3032,18 +2957,18 @@
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="65" t="n">
+      <c r="F14" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="64" t="n">
+      <c r="C15" s="59" t="n">
         <v>8850886057207</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -3052,7 +2977,7 @@
       <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="65" t="n">
+      <c r="F15" s="60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -1465,13 +1465,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1735,12 +1735,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2094,11 +2094,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2112,6 +2112,7 @@
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2304,9 +2305,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2456,12 +2457,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="43" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2677,17 +2678,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="55" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="55" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="55" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="56" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2758,7 +2759,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="80">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -729,24 +729,25 @@
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Bisolvon Tab 8 MG 50x10's/Box,Bisolvon Pediatric Syrup 60ml,Bisolvon Ex Syrup 60ml
+    <t xml:space="preserve">Bisolvon Pediatric Syrup 60ml, Bisolvon Ex Syrup 60ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8850886103041,8850886103058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast 60 MG,Telfast 180 MG
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8850886103072,8850886103041,8850886103058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast 60 MG,Telfast 180 MG,Telfast Oral Suspension 150ml</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-8993237285017,8993237226072,7891058013264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUCOSOLVAN TAB 30mg,MUCOSOLVAN SYRUB 60ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8850886103133,8850886103126</t>
+8993237285017,8993237226072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucosolvan Tab 30mg 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8850886103133</t>
   </si>
   <si>
     <t xml:space="preserve">Shelf Frame_Bisolvon</t>
@@ -928,17 +929,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -947,7 +948,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1005,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1053,20 +1060,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1081,6 +1074,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1130,7 +1137,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1279,22 +1286,38 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1307,46 +1330,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1363,7 +1386,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1375,7 +1398,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1465,13 +1488,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1735,12 +1758,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2094,11 +2117,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2297,17 +2320,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2342,7 +2365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
@@ -2352,13 +2375,13 @@
       <c r="C3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="40" t="n">
+      <c r="F3" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,17 +2395,17 @@
       <c r="C4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="40" t="n">
+      <c r="F4" s="41" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
@@ -2392,46 +2415,37 @@
       <c r="C5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="40" t="n">
+      <c r="F5" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-    </row>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2457,13 +2471,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="43" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="47" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,30 +2491,30 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -2509,18 +2523,18 @@
       <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="49" t="n">
+      <c r="F3" s="53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2532,15 +2546,15 @@
       <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="49" t="n">
+      <c r="F4" s="53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2549,18 +2563,18 @@
       <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -2569,42 +2583,42 @@
       <c r="D6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="53" t="n">
+      <c r="F6" s="57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="54"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="54"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="54"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,19 +2691,19 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="55" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="56" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="60" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,33 +2717,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="61" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="63" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -2738,18 +2752,18 @@
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="60" t="n">
+      <c r="F3" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="63" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -2758,18 +2772,18 @@
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="60" t="n">
+      <c r="F4" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="63" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -2778,18 +2792,18 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="60" t="n">
+      <c r="F5" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="63" t="n">
         <v>8850886103126</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -2798,18 +2812,18 @@
       <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="60" t="n">
-        <v>1</v>
+      <c r="F6" s="64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="63" t="n">
         <v>8850886103133</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -2818,18 +2832,18 @@
       <c r="E7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="60" t="n">
-        <v>0</v>
+      <c r="F7" s="64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="63" t="n">
         <v>8993237285017</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -2838,18 +2852,18 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="60" t="n">
+      <c r="F8" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="63" t="n">
         <v>8993237226072</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -2858,18 +2872,18 @@
       <c r="E9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="60" t="n">
+      <c r="F9" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="63" t="n">
         <v>7891058013264</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2878,18 +2892,18 @@
       <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="60" t="n">
+      <c r="F10" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="63" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -2898,18 +2912,18 @@
       <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="60" t="n">
+      <c r="F11" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="63" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -2918,18 +2932,18 @@
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="60" t="n">
+      <c r="F12" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="63" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2938,18 +2952,18 @@
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="60" t="n">
+      <c r="F13" s="64" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="63" t="n">
         <v>8850886057252</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -2958,18 +2972,18 @@
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="60" t="n">
+      <c r="F14" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="59" t="n">
+      <c r="C15" s="63" t="n">
         <v>8850886057207</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2978,7 +2992,7 @@
       <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="60" t="n">
+      <c r="F15" s="64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1488,13 +1488,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1752,18 +1752,18 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2005,7 +2005,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0"/>
     </row>
@@ -2047,7 +2047,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="25"/>
     </row>
@@ -2089,7 +2089,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2117,11 +2117,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2322,15 +2322,15 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2471,12 +2471,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="47" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2697,12 +2697,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="59" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="60" width="8.89068825910931"/>
   </cols>
   <sheetData>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="80">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1137,7 +1137,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1312,14 +1312,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1488,13 +1480,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1752,18 +1744,18 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2117,11 +2109,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2322,15 +2314,15 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2425,26 +2417,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2471,13 +2445,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="47" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="45" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,30 +2465,30 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -2523,18 +2497,18 @@
       <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="53" t="n">
+      <c r="F3" s="51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2546,15 +2520,15 @@
       <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="53" t="n">
+      <c r="F4" s="51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2563,18 +2537,18 @@
       <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="54" t="n">
+      <c r="F5" s="52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -2583,42 +2557,42 @@
       <c r="D6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="57" t="n">
+      <c r="F6" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="53"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,13 +2671,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="60" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="57" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="57" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="57" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="58" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,33 +2691,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="63" t="n">
+      <c r="C3" s="61" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -2752,18 +2726,18 @@
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="64" t="n">
+      <c r="F3" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="63" t="n">
+      <c r="C4" s="61" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -2772,18 +2746,18 @@
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="64" t="n">
+      <c r="F4" s="62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="63" t="n">
+      <c r="C5" s="61" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -2792,18 +2766,18 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="64" t="n">
+      <c r="F5" s="62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="63" t="n">
+      <c r="C6" s="61" t="n">
         <v>8850886103126</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -2812,18 +2786,18 @@
       <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="64" t="n">
+      <c r="F6" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="63" t="n">
+      <c r="C7" s="61" t="n">
         <v>8850886103133</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -2832,18 +2806,18 @@
       <c r="E7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="64" t="n">
+      <c r="F7" s="62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="63" t="n">
+      <c r="C8" s="61" t="n">
         <v>8993237285017</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -2852,18 +2826,18 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="64" t="n">
+      <c r="F8" s="62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="63" t="n">
+      <c r="C9" s="61" t="n">
         <v>8993237226072</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -2872,18 +2846,18 @@
       <c r="E9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="64" t="n">
+      <c r="F9" s="62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="63" t="n">
+      <c r="C10" s="61" t="n">
         <v>7891058013264</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2892,18 +2866,18 @@
       <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="64" t="n">
+      <c r="F10" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="63" t="n">
+      <c r="C11" s="61" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -2912,18 +2886,18 @@
       <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="64" t="n">
+      <c r="F11" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="63" t="n">
+      <c r="C12" s="61" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -2932,18 +2906,18 @@
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="64" t="n">
+      <c r="F12" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="63" t="n">
+      <c r="C13" s="61" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2952,18 +2926,18 @@
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="64" t="n">
+      <c r="F13" s="62" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="63" t="n">
+      <c r="C14" s="61" t="n">
         <v>8850886057252</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -2972,18 +2946,18 @@
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="64" t="n">
+      <c r="F14" s="62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="63" t="n">
+      <c r="C15" s="61" t="n">
         <v>8850886057207</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2992,7 +2966,7 @@
       <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="64" t="n">
+      <c r="F15" s="62" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -727,27 +727,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisolvon Pediatric Syrup 60ml, Bisolvon Ex Syrup 60ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8850886103041,8850886103058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast 60 MG,Telfast 180 MG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-8993237285017,8993237226072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mucosolvan Tab 30mg 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8850886103133</t>
   </si>
   <si>
     <t xml:space="preserve">Shelf Frame_Bisolvon</t>
@@ -929,17 +908,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -948,7 +927,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,12 +984,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1060,6 +1033,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1074,20 +1061,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1137,7 +1110,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1286,34 +1259,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1322,46 +1267,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1378,7 +1323,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1390,7 +1335,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1480,13 +1425,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1750,12 +1695,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2109,11 +2054,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2312,17 +2257,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2357,69 +2302,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2445,13 +2327,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="45" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,54 +2347,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>69</v>
+      <c r="B3" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="51" t="n">
+      <c r="F3" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>71</v>
+      <c r="B4" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>51</v>
@@ -2520,79 +2402,79 @@
       <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="51" t="n">
+      <c r="F4" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>73</v>
+      <c r="B5" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="52" t="n">
+      <c r="F5" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>75</v>
+      <c r="B6" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="55" t="n">
+      <c r="F6" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="51"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="56"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,13 +2553,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="57" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="57" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="57" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="58" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="51" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,33 +2573,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="61" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" s="54" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -2726,18 +2608,18 @@
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="62" t="n">
+      <c r="F3" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="61" t="n">
+      <c r="C4" s="54" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -2746,18 +2628,18 @@
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="62" t="n">
+      <c r="F4" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="61" t="n">
+      <c r="C5" s="54" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -2766,18 +2648,18 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="62" t="n">
+      <c r="F5" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="61" t="n">
+        <v>72</v>
+      </c>
+      <c r="C6" s="54" t="n">
         <v>8850886103126</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -2786,18 +2668,18 @@
       <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="62" t="n">
+      <c r="F6" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="61" t="n">
+        <v>73</v>
+      </c>
+      <c r="C7" s="54" t="n">
         <v>8850886103133</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -2806,18 +2688,18 @@
       <c r="E7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="62" t="n">
+      <c r="F7" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="61" t="n">
+      <c r="C8" s="54" t="n">
         <v>8993237285017</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -2826,18 +2708,18 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="62" t="n">
+      <c r="F8" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="61" t="n">
+      <c r="C9" s="54" t="n">
         <v>8993237226072</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -2846,18 +2728,18 @@
       <c r="E9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="62" t="n">
+      <c r="F9" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="61" t="n">
+      <c r="C10" s="54" t="n">
         <v>7891058013264</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2866,18 +2748,18 @@
       <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="62" t="n">
+      <c r="F10" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="61" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" s="54" t="n">
         <v>8850886103072</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -2886,18 +2768,18 @@
       <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="62" t="n">
+      <c r="F11" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="61" t="n">
+      <c r="C12" s="54" t="n">
         <v>8850886103041</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -2906,18 +2788,18 @@
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="62" t="n">
+      <c r="F12" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="61" t="n">
+      <c r="C13" s="54" t="n">
         <v>8850886103058</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2926,18 +2808,18 @@
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="62" t="n">
+      <c r="F13" s="55" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="61" t="n">
+      <c r="C14" s="54" t="n">
         <v>8850886057252</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -2946,18 +2828,18 @@
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="62" t="n">
+      <c r="F14" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="61" t="n">
+      <c r="C15" s="54" t="n">
         <v>8850886057207</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2966,7 +2848,7 @@
       <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="62" t="n">
+      <c r="F15" s="55" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -702,30 +702,18 @@
     <t xml:space="preserve">Telfast 180 MG</t>
   </si>
   <si>
-    <t xml:space="preserve">Telfast Oral Suspension 150ml</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maalox Alum Milk 240ml</t>
   </si>
   <si>
     <t xml:space="preserve">Maalox</t>
   </si>
   <si>
-    <t xml:space="preserve">Mucosolvan Syrup 60ml</t>
+    <t xml:space="preserve">Mucosolvan Tab 30mg</t>
   </si>
   <si>
     <t xml:space="preserve">Mucosolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">Mucosolvan Tab 30mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proctosedyl Oint 15mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proctosedyl</t>
-  </si>
-  <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
@@ -751,12 +739,6 @@
   </si>
   <si>
     <t xml:space="preserve">TH_Secondary_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisolvon Tab 8 MG 50x10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUCOSOLVAN SYRUB 60ml</t>
   </si>
   <si>
     <t xml:space="preserve">MUCOSOLVAN TAB 30mg</t>
@@ -1419,19 +1401,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1687,20 +1669,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1933,102 +1915,43 @@
         <v>54</v>
       </c>
       <c r="C12" s="21" t="n">
-        <v>7891058013264</v>
+        <v>8850886056125</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21" t="n">
-        <v>8850886056125</v>
+        <v>8850886103133</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>8850886103126</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>8850886103133</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>8850886087228</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2054,11 +1977,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2085,7 +2008,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2259,15 +2182,15 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2327,12 +2250,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2371,10 +2294,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>37</v>
@@ -2391,10 +2314,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>51</v>
@@ -2411,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>38</v>
@@ -2431,10 +2354,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>37</v>
@@ -2545,20 +2468,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="50" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="51" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2597,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C3" s="54" t="n">
-        <v>8850886103072</v>
+        <v>8850886103041</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>37</v>
@@ -2609,7 +2532,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,10 +2540,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="54" t="n">
-        <v>8850886103041</v>
+        <v>8850886103058</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>37</v>
@@ -2637,13 +2560,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C5" s="54" t="n">
-        <v>8850886103058</v>
+        <v>8850886103133</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>38</v>
@@ -2657,19 +2580,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C6" s="54" t="n">
-        <v>8850886103126</v>
+        <v>8993237285017</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F6" s="55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,181 +2600,67 @@
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C7" s="54" t="n">
-        <v>8850886103133</v>
+        <v>8993237226072</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F7" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
-        <v>12</v>
+      <c r="A8" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" s="54" t="n">
-        <v>8993237285017</v>
+        <v>8850886103058</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
-        <v>12</v>
+      <c r="A9" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="54" t="n">
-        <v>8993237226072</v>
+        <v>8850886057252</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="55" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="54" t="n">
-        <v>7891058013264</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="54" t="n">
-        <v>8850886103072</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="54" t="n">
-        <v>8850886103041</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="54" t="n">
-        <v>8850886103058</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="54" t="n">
-        <v>8850886057252</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="54" t="n">
-        <v>8850886057207</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -702,53 +702,21 @@
     <t xml:space="preserve">Telfast 180 MG</t>
   </si>
   <si>
-    <t xml:space="preserve">Telfast Oral Suspension 150ml</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maalox Alum Milk 240ml</t>
   </si>
   <si>
     <t xml:space="preserve">Maalox</t>
   </si>
   <si>
-    <t xml:space="preserve">Mucosolvan Syrup 60ml</t>
+    <t xml:space="preserve">Mucosolvan Tab 30mg</t>
   </si>
   <si>
     <t xml:space="preserve">Mucosolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">Mucosolvan Tab 30mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proctosedyl Oint 15mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proctosedyl</t>
-  </si>
-  <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Bisolvon Tab 8 MG 50x10's/Box,Bisolvon Pediatric Syrup 60ml,Bisolvon Ex Syrup 60ml
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8850886103072,8850886103041,8850886103058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast 60 MG,Telfast 180 MG,Telfast Oral Suspension 150ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-8993237285017,8993237226072,7891058013264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUCOSOLVAN TAB 30mg,MUCOSOLVAN SYRUB 60ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8850886103133,8850886103126</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shelf Frame_Bisolvon</t>
   </si>
   <si>
@@ -771,12 +739,6 @@
   </si>
   <si>
     <t xml:space="preserve">TH_Secondary_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisolvon Tab 8 MG 50x10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUCOSOLVAN SYRUB 60ml</t>
   </si>
   <si>
     <t xml:space="preserve">MUCOSOLVAN TAB 30mg</t>
@@ -1130,7 +1092,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1277,26 +1239,6 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1459,19 +1401,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1727,20 +1669,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1973,102 +1915,43 @@
         <v>54</v>
       </c>
       <c r="C12" s="21" t="n">
-        <v>7891058013264</v>
+        <v>8850886056125</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="0"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21" t="n">
-        <v>8850886056125</v>
+        <v>8850886103133</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>8850886103126</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>8850886103133</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>8850886087228</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2094,11 +1977,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2125,7 +2008,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2297,17 +2180,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2341,96 +2224,6 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2457,13 +2250,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="43" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,54 +2270,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>69</v>
+      <c r="B3" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="49" t="n">
+      <c r="F3" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>71</v>
+      <c r="B4" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>51</v>
@@ -2532,79 +2325,79 @@
       <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="49" t="n">
+      <c r="F4" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>73</v>
+      <c r="B5" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>75</v>
+      <c r="B6" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="53" t="n">
+      <c r="F6" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="54"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="54"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="54"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,21 +2468,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="55" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="56" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="51" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,34 +2496,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="59" t="n">
-        <v>8850886103072</v>
+        <v>39</v>
+      </c>
+      <c r="C3" s="54" t="n">
+        <v>8850886103041</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>37</v>
@@ -2738,19 +2531,19 @@
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="60" t="n">
-        <v>0</v>
+      <c r="F3" s="55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="59" t="n">
-        <v>8850886103041</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="54" t="n">
+        <v>8850886103058</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>37</v>
@@ -2758,230 +2551,116 @@
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="60" t="n">
+      <c r="F4" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="59" t="n">
-        <v>8850886103058</v>
+        <v>67</v>
+      </c>
+      <c r="C5" s="54" t="n">
+        <v>8850886103133</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="60" t="n">
+      <c r="F5" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="59" t="n">
-        <v>8850886103126</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="54" t="n">
+        <v>8993237285017</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="54" t="n">
+        <v>8993237226072</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="54" t="n">
+        <v>8850886103058</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="60" t="n">
+      <c r="F8" s="55" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="59" t="n">
-        <v>8850886103133</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="20" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="54" t="n">
+        <v>8850886057252</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="59" t="n">
-        <v>8993237285017</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="60" t="n">
+      <c r="F9" s="55" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="59" t="n">
-        <v>8993237226072</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="59" t="n">
-        <v>7891058013264</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="59" t="n">
-        <v>8850886103072</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="59" t="n">
-        <v>8850886103041</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="59" t="n">
-        <v>8850886103058</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="59" t="n">
-        <v>8850886057252</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="59" t="n">
-        <v>8850886057207</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="60" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -712,6 +712,27 @@
   </si>
   <si>
     <t xml:space="preserve">Mucosolvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisolvon 8mg syrup 60ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough&amp;Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton Cap 30mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutritional</t>
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
@@ -1193,24 +1214,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1407,13 +1428,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1669,20 +1690,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1697,7 +1718,7 @@
       </c>
       <c r="G1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1717,6 +1738,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
@@ -1738,6 +1760,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
@@ -1759,6 +1782,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
@@ -1780,6 +1804,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
@@ -1801,6 +1826,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
@@ -1822,6 +1848,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
@@ -1843,6 +1870,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
@@ -1864,6 +1892,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
@@ -1885,6 +1914,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
@@ -1906,6 +1936,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
@@ -1926,7 +1957,8 @@
       <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
@@ -1947,7 +1979,74 @@
       <c r="F13" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <v>8850886103218</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>4048846004130</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>8850886103171</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1977,21 +2076,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="25" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2008,7 +2107,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2016,20 +2115,20 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="30"/>
       <c r="E3" s="13"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="32"/>
@@ -2038,7 +2137,7 @@
       <c r="F4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="32"/>
@@ -2047,7 +2146,7 @@
       <c r="F5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -2056,7 +2155,7 @@
       <c r="F6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="32"/>
@@ -2065,7 +2164,7 @@
       <c r="F7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="32"/>
@@ -2074,7 +2173,7 @@
       <c r="F8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="32"/>
@@ -2083,7 +2182,7 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="32"/>
@@ -2092,7 +2191,7 @@
       <c r="F10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="32"/>
@@ -2101,7 +2200,7 @@
       <c r="F11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="32"/>
@@ -2110,7 +2209,7 @@
       <c r="F12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="32"/>
@@ -2119,7 +2218,7 @@
       <c r="F13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="32"/>
@@ -2128,7 +2227,7 @@
       <c r="F14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="32"/>
@@ -2137,7 +2236,7 @@
       <c r="F15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="32"/>
@@ -2146,7 +2245,7 @@
       <c r="F16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="32"/>
@@ -2155,7 +2254,7 @@
       <c r="F17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="32"/>
@@ -2188,9 +2287,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2250,12 +2349,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2294,12 +2393,12 @@
         <v>7</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="43" t="s">
@@ -2314,15 +2413,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="29" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="44" t="n">
@@ -2334,12 +2433,12 @@
         <v>7</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -2354,12 +2453,12 @@
         <v>20</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="43" t="s">
@@ -2373,30 +2472,30 @@
       <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="49"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="49"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="49"/>
       <c r="F10" s="30"/>
     </row>
@@ -2470,27 +2569,27 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="50" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="51" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2560,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C5" s="54" t="n">
         <v>8850886103133</v>

--- a/Projects/BITH/Data/Template.xlsx
+++ b/Projects/BITH/Data/Template.xlsx
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="77">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -754,6 +754,12 @@
   </si>
   <si>
     <t xml:space="preserve">TH_Primary_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Talker_Pharmaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH_Primary_06</t>
   </si>
   <si>
     <t xml:space="preserve">Secondary_Dual_Bisolvon + Cepacol</t>
@@ -1428,13 +1434,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1693,17 +1699,17 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1717,6 +1723,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2076,11 +2083,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="25" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="25" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -2287,9 +2294,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.89068825910931"/>
   </cols>
@@ -2341,20 +2348,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2448,107 +2455,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="47" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="F6" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="44"/>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="29"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="49"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="49"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="30"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="30"/>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="30"/>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="30"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="30"/>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="30"/>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="30"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="30"/>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="30"/>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="30"/>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="30"/>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="30"/>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="30"/>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="30"/>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="30"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2567,20 +2594,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="50" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="51" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2659,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="54" t="n">
         <v>8850886103133</v>
@@ -2715,20 +2742,20 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56" t="s">
-        <v>22</v>
+      <c r="A8" s="53" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C8" s="54" t="n">
-        <v>8850886103058</v>
+        <v>8850886103171</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="55" t="n">
         <v>1</v>
@@ -2739,13 +2766,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="54" t="n">
-        <v>8850886057252</v>
+        <v>8850886103058</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>38</v>
@@ -2754,12 +2781,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="54" t="n">
+        <v>8850886057252</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="54" t="n">
+        <v>8850886103171</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="54" t="n">
+        <v>4048846004130</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
